--- a/code/exemplo.xlsx
+++ b/code/exemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jssp\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-version\jssp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8CEDCB-9EE6-4427-8856-F9C86E3FEFFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED83212-F5EB-4A78-ACA1-BB80A0356196}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{07FD2462-AA0A-43E4-858C-41630EA873DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +46,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +80,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -85,13 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA72EC1-36D7-4AFA-BD85-A1EE22D9C081}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11700" ySplit="600" topLeftCell="AD46" activePane="bottomLeft"/>
+      <pane xSplit="11700" ySplit="600" topLeftCell="AD122" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36:G36"/>
+      <selection pane="bottomLeft" activeCell="O152" sqref="O152"/>
       <selection pane="bottomRight" activeCell="AD76" sqref="AD76"/>
     </sheetView>
   </sheetViews>
@@ -917,6 +933,485 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="6"/>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="105" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+      <c r="AC119" s="7"/>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="129" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="141" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+    </row>
+    <row r="146" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/exemplo.xlsx
+++ b/code/exemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-version\jssp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED83212-F5EB-4A78-ACA1-BB80A0356196}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B01F20-1788-4135-A15A-29CFD02ECCFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{07FD2462-AA0A-43E4-858C-41630EA873DA}"/>
   </bookViews>
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +86,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -99,15 +105,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +432,10 @@
   <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11700" ySplit="600" topLeftCell="AD122" activePane="bottomLeft"/>
+      <pane xSplit="11700" ySplit="600" topLeftCell="AD118" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="O152" sqref="O152"/>
+      <selection pane="bottomLeft" activeCell="P147" sqref="P147"/>
       <selection pane="bottomRight" activeCell="AD76" sqref="AD76"/>
     </sheetView>
   </sheetViews>
@@ -526,47 +533,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="8"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -584,11 +595,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
@@ -599,11 +610,11 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
@@ -614,11 +625,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
@@ -631,11 +642,11 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -663,12 +674,12 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -676,23 +687,23 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
@@ -776,26 +787,26 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
@@ -1078,7 +1089,7 @@
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="M93" s="6"/>
+      <c r="M93" s="5"/>
     </row>
     <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G95" s="2"/>
@@ -1222,35 +1233,35 @@
       <c r="Q118" s="2"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
-      <c r="Z119" s="7"/>
-      <c r="AA119" s="7"/>
-      <c r="AB119" s="7"/>
-      <c r="AC119" s="7"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>

--- a/code/exemplo.xlsx
+++ b/code/exemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-version\jssp\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jssp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B01F20-1788-4135-A15A-29CFD02ECCFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8E163-CB25-4A97-B019-AE9B49E24D40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{07FD2462-AA0A-43E4-858C-41630EA873DA}"/>
   </bookViews>
@@ -27,6 +27,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Clique 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +100,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -101,11 +115,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -114,7 +245,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,19 +581,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA72EC1-36D7-4AFA-BD85-A1EE22D9C081}">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AO232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11700" ySplit="600" topLeftCell="AD118" activePane="bottomLeft"/>
+      <pane xSplit="11700" ySplit="600" topLeftCell="AD211" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="P147" sqref="P147"/>
-      <selection pane="bottomRight" activeCell="AD76" sqref="AD76"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AP1048576"/>
+      <selection pane="bottomLeft" activeCell="E216" sqref="E216:F222"/>
+      <selection pane="bottomRight" activeCell="AG187" sqref="AG187:AI193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="3.7109375" customWidth="1"/>
+    <col min="1" max="42" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -534,38 +686,16 @@
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="L2" s="1"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="D3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="6"/>
-    </row>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1232,7 +1362,7 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -1268,160 +1398,1210 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="14"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="14"/>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="14"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="14"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-    </row>
+      <c r="E126" s="16"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="21"/>
+    </row>
+    <row r="128" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="10"/>
     </row>
     <row r="130" spans="7:15" x14ac:dyDescent="0.25">
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="13"/>
     </row>
     <row r="131" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="18"/>
     </row>
     <row r="132" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="18"/>
       <c r="M132" s="3"/>
     </row>
     <row r="133" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="18"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="L134" s="3"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="18"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
     </row>
     <row r="135" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="14"/>
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="14"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-    </row>
+    <row r="137" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J137" s="19"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="21"/>
+    </row>
+    <row r="140" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="M141" s="2"/>
+      <c r="M141" s="24"/>
     </row>
     <row r="142" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="M142" s="25"/>
     </row>
     <row r="143" spans="7:15" x14ac:dyDescent="0.25">
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
+      <c r="M143" s="25"/>
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="M144" s="25"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="M145" s="25"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="M146" s="1"/>
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M146" s="25"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M147" s="26"/>
+    </row>
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
+      <c r="M148" s="26"/>
       <c r="N148" s="3"/>
     </row>
-    <row r="149" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="M149" s="3"/>
+    <row r="149" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M149" s="27"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="4"/>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>1</v>
+      </c>
+      <c r="AG151">
+        <v>2</v>
+      </c>
+      <c r="AH151">
+        <v>3</v>
+      </c>
+      <c r="AI151">
+        <v>4</v>
+      </c>
+      <c r="AJ151">
+        <v>5</v>
+      </c>
+      <c r="AK151">
+        <v>6</v>
+      </c>
+      <c r="AL151">
+        <v>7</v>
+      </c>
+      <c r="AM151">
+        <v>8</v>
+      </c>
+      <c r="AN151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="U152" s="2"/>
+      <c r="V152" s="2"/>
+      <c r="W152" s="2"/>
+      <c r="AH152" s="3"/>
+      <c r="AI152" s="3"/>
+      <c r="AJ152" s="3"/>
+      <c r="AK152" s="4"/>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="N153" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="AI153" s="3"/>
+      <c r="AJ153" s="3"/>
+      <c r="AK153" s="3"/>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+      <c r="AJ155" s="1"/>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="AG156" s="1"/>
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+      <c r="AJ156" s="1"/>
+      <c r="AK156" s="1"/>
+    </row>
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+    </row>
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
+      <c r="AI158" s="1"/>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+    </row>
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AJ159" s="1"/>
+      <c r="AK159" s="1"/>
+      <c r="AL159" s="1"/>
+      <c r="AM159" s="1"/>
+      <c r="AN159" s="1"/>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="AH160" s="2"/>
+      <c r="AI160" s="2"/>
+      <c r="AJ160" s="2"/>
+    </row>
+    <row r="161" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+    </row>
+    <row r="162" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="AE162">
+        <v>5</v>
+      </c>
+      <c r="AF162">
+        <v>6</v>
+      </c>
+      <c r="AG162">
+        <v>7</v>
+      </c>
+      <c r="AH162">
+        <v>8</v>
+      </c>
+      <c r="AI162">
+        <v>9</v>
+      </c>
+      <c r="AJ162">
+        <v>10</v>
+      </c>
+      <c r="AK162">
+        <v>11</v>
+      </c>
+      <c r="AL162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="AH163" s="3"/>
+      <c r="AI163" s="3"/>
+      <c r="AJ163" s="3"/>
+      <c r="AK163" s="3"/>
+      <c r="AL163" s="3"/>
+    </row>
+    <row r="164" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
+      <c r="AH164" s="1"/>
+    </row>
+    <row r="165" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="AF165" s="1"/>
+      <c r="AG165" s="1"/>
+      <c r="AH165" s="1"/>
+      <c r="AI165" s="1"/>
+    </row>
+    <row r="166" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="1"/>
+    </row>
+    <row r="167" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="1"/>
+      <c r="AM167" s="1"/>
+    </row>
+    <row r="168" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F168" s="4"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="AG168" s="2"/>
+      <c r="AH168" s="2"/>
+      <c r="AI168" s="2"/>
+      <c r="AJ168" s="4"/>
+      <c r="AK168" s="4"/>
+      <c r="AM168" s="29"/>
+      <c r="AN168" s="29"/>
+    </row>
+    <row r="169" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="AK169" s="1"/>
+      <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
+      <c r="AN169" s="1"/>
+      <c r="AO169" s="1"/>
+    </row>
+    <row r="170" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="3"/>
+      <c r="AK170" s="3"/>
+    </row>
+    <row r="171" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AI171" s="3"/>
+      <c r="AJ171" s="3"/>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="3"/>
+    </row>
+    <row r="172" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+    </row>
+    <row r="173" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="AE173">
+        <v>3</v>
+      </c>
+      <c r="AF173">
+        <v>4</v>
+      </c>
+      <c r="AG173">
+        <v>5</v>
+      </c>
+      <c r="AH173">
+        <v>6</v>
+      </c>
+      <c r="AI173">
+        <v>7</v>
+      </c>
+      <c r="AJ173">
+        <v>8</v>
+      </c>
+      <c r="AK173">
+        <v>9</v>
+      </c>
+      <c r="AL173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="AF174" s="3"/>
+      <c r="AG174" s="3"/>
+      <c r="AH174" s="3"/>
+    </row>
+    <row r="175" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="AG175" s="3"/>
+      <c r="AH175" s="3"/>
+      <c r="AI175" s="3"/>
+    </row>
+    <row r="176" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="AH176" s="3"/>
+      <c r="AI176" s="3"/>
+      <c r="AJ176" s="3"/>
+    </row>
+    <row r="177" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="AI177" s="3"/>
+      <c r="AJ177" s="3"/>
+      <c r="AK177" s="3"/>
+    </row>
+    <row r="178" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="AE178" s="1"/>
+      <c r="AF178" s="1"/>
+      <c r="AG178" s="1"/>
+      <c r="AH178" s="1"/>
+      <c r="AI178" s="1"/>
+      <c r="AJ178" s="4"/>
+      <c r="AK178" s="4"/>
+      <c r="AL178" s="4"/>
+    </row>
+    <row r="179" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AF179" s="1"/>
+      <c r="AG179" s="1"/>
+      <c r="AH179" s="1"/>
+      <c r="AI179" s="1"/>
+      <c r="AJ179" s="1"/>
+      <c r="AK179" s="4"/>
+      <c r="AL179" s="4"/>
+    </row>
+    <row r="180" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="4"/>
+      <c r="AG180" s="1"/>
+      <c r="AH180" s="1"/>
+      <c r="AI180" s="1"/>
+      <c r="AJ180" s="1"/>
+      <c r="AK180" s="1"/>
+      <c r="AL180" s="4"/>
+    </row>
+    <row r="181" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="4"/>
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="1"/>
+      <c r="AI181" s="1"/>
+      <c r="AJ181" s="1"/>
+      <c r="AK181" s="1"/>
+      <c r="AL181" s="1"/>
+    </row>
+    <row r="182" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="4"/>
+      <c r="AG182" s="2"/>
+      <c r="AH182" s="2"/>
+      <c r="AI182" s="2"/>
+      <c r="AJ182" s="4"/>
+      <c r="AK182" s="4"/>
+      <c r="AL182" s="4"/>
+    </row>
+    <row r="183" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="4"/>
+      <c r="AH183" s="2"/>
+      <c r="AI183" s="2"/>
+      <c r="AJ183" s="2"/>
+    </row>
+    <row r="184" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="AE186">
+        <v>7</v>
+      </c>
+      <c r="AF186">
+        <v>8</v>
+      </c>
+      <c r="AG186">
+        <v>9</v>
+      </c>
+      <c r="AH186">
+        <v>10</v>
+      </c>
+      <c r="AI186">
+        <v>11</v>
+      </c>
+      <c r="AJ186">
+        <v>12</v>
+      </c>
+      <c r="AK186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="AF187" s="3"/>
+      <c r="AG187" s="3"/>
+      <c r="AH187" s="3"/>
+      <c r="AI187" s="3"/>
+      <c r="AJ187" s="3"/>
+    </row>
+    <row r="188" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="AG188" s="3"/>
+      <c r="AH188" s="3"/>
+      <c r="AI188" s="3"/>
+      <c r="AJ188" s="3"/>
+      <c r="AK188" s="3"/>
+    </row>
+    <row r="189" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="AF189" s="1"/>
+      <c r="AG189" s="1"/>
+      <c r="AH189" s="1"/>
+      <c r="AI189" s="1"/>
+    </row>
+    <row r="190" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AG190" s="1"/>
+      <c r="AH190" s="1"/>
+      <c r="AI190" s="1"/>
+      <c r="AJ190" s="1"/>
+    </row>
+    <row r="191" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AE191" s="2"/>
+      <c r="AF191" s="2"/>
+      <c r="AG191" s="2"/>
+    </row>
+    <row r="192" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AH192" s="2"/>
+      <c r="AI192" s="2"/>
+      <c r="AJ192" s="2"/>
+    </row>
+    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="AI193" s="2"/>
+      <c r="AJ193" s="2"/>
+      <c r="AK193" s="2"/>
+    </row>
+    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+    </row>
+    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+    </row>
+    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+    </row>
+    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6"/>
+      <c r="X200" s="6"/>
+      <c r="Y200" s="6"/>
+      <c r="Z200" s="6"/>
+      <c r="AA200" s="6"/>
+      <c r="AB200" s="6"/>
+      <c r="AC200" s="6"/>
+    </row>
+    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+    </row>
+    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+    </row>
+    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+    </row>
+    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+    </row>
+    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+    </row>
+    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+    </row>
+    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+    </row>
+    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
+      <c r="H210" s="28"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E211" s="3"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F213" s="3"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G214" s="3"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="28"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E218" s="28"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="28"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/code/exemplo.xlsx
+++ b/code/exemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jssp\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-version\jssp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8E163-CB25-4A97-B019-AE9B49E24D40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733A37C-96BE-49D8-8D51-2D59AC650E2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{07FD2462-AA0A-43E4-858C-41630EA873DA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -267,6 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,14 +589,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA72EC1-36D7-4AFA-BD85-A1EE22D9C081}">
-  <dimension ref="A1:AO232"/>
+  <dimension ref="A1:AP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11700" ySplit="600" topLeftCell="AD211" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1"/>
+      <pane xSplit="16770" ySplit="600" topLeftCell="AQ274" activePane="bottomLeft"/>
+      <selection activeCell="AP1" sqref="AP1"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1:AP1048576"/>
-      <selection pane="bottomLeft" activeCell="E216" sqref="E216:F222"/>
-      <selection pane="bottomRight" activeCell="AG187" sqref="AG187:AI193"/>
+      <selection pane="bottomLeft" activeCell="AE290" sqref="AE280:AK290"/>
+      <selection pane="bottomRight" activeCell="AN210" sqref="AN210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +604,7 @@
     <col min="1" max="42" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -684,31 +692,70 @@
       <c r="AC1">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I2" s="2"/>
       <c r="L2" s="1"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -716,7 +763,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -731,7 +778,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -746,7 +793,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -761,7 +808,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -778,7 +825,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2550,58 +2597,549 @@
       <c r="F222" s="3"/>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A225" s="28"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q234" s="28"/>
+      <c r="R234" s="28"/>
+      <c r="S234" s="28"/>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R236" s="28"/>
+      <c r="S236" s="28"/>
+      <c r="T236" s="28"/>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S238" s="28"/>
+      <c r="T238" s="28"/>
+      <c r="U238" s="28"/>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T239" s="28"/>
+      <c r="U239" s="28"/>
+      <c r="V239" s="28"/>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U240" s="28"/>
+      <c r="V240" s="28"/>
+      <c r="W240" s="28"/>
+    </row>
+    <row r="241" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="V241" s="28"/>
+      <c r="W241" s="28"/>
+      <c r="X241" s="28"/>
+    </row>
+    <row r="244" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q244" s="28"/>
+      <c r="R244" s="28"/>
+      <c r="S244" s="28"/>
+    </row>
+    <row r="245" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="R245" s="28"/>
+      <c r="S245" s="28"/>
+      <c r="T245" s="28"/>
+    </row>
+    <row r="246" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="S246" s="28"/>
+      <c r="T246" s="28"/>
+      <c r="U246" s="28"/>
+    </row>
+    <row r="247" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="T247" s="28"/>
+      <c r="U247" s="28"/>
+      <c r="V247" s="28"/>
+    </row>
+    <row r="248" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="U248" s="28"/>
+      <c r="V248" s="28"/>
+      <c r="W248" s="28"/>
+    </row>
+    <row r="249" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="V249" s="28"/>
+      <c r="W249" s="28"/>
+      <c r="X249" s="28"/>
+    </row>
+    <row r="250" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="W250" s="28"/>
+      <c r="X250" s="28"/>
+      <c r="Y250" s="28"/>
+    </row>
+    <row r="251" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="X251" s="28"/>
+      <c r="Y251" s="28"/>
+      <c r="Z251" s="28"/>
+    </row>
+    <row r="252" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+    </row>
+    <row r="255" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q255" s="28"/>
+      <c r="R255" s="28"/>
+      <c r="S255" s="28"/>
+    </row>
+    <row r="256" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="R256" s="28"/>
+      <c r="S256" s="28"/>
+      <c r="T256" s="28"/>
+    </row>
+    <row r="257" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="S257" s="28"/>
+      <c r="T257" s="28"/>
+      <c r="U257" s="28"/>
+    </row>
+    <row r="258" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="T258" s="28"/>
+      <c r="U258" s="28"/>
+      <c r="V258" s="28"/>
+    </row>
+    <row r="259" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="U259" s="28"/>
+      <c r="V259" s="28"/>
+      <c r="W259" s="28"/>
+    </row>
+    <row r="260" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="V260" s="28"/>
+      <c r="W260" s="28"/>
+      <c r="X260" s="28"/>
+    </row>
+    <row r="261" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="4"/>
+      <c r="O261" s="4"/>
+      <c r="W261" s="28"/>
+      <c r="X261" s="28"/>
+      <c r="Y261" s="28"/>
+      <c r="AA261" s="4"/>
+      <c r="AB261" s="4"/>
+    </row>
+    <row r="262" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J262" s="4"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
+      <c r="O262" s="4"/>
+      <c r="P262" s="4"/>
+      <c r="Q262" s="4"/>
+      <c r="R262" s="4"/>
+      <c r="S262" s="3"/>
+      <c r="T262" s="3"/>
+      <c r="U262" s="3"/>
+      <c r="V262" s="3"/>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
+      <c r="Y262" s="4"/>
+      <c r="Z262" s="4"/>
+      <c r="AA262" s="4"/>
+      <c r="AB262" s="4"/>
+    </row>
+    <row r="263" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
+      <c r="Q263" s="30"/>
+      <c r="R263" s="30"/>
+      <c r="S263" s="30"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+    </row>
+    <row r="264" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="4"/>
+      <c r="O264" s="4"/>
+      <c r="P264" s="4"/>
+      <c r="R264" s="30"/>
+      <c r="S264" s="30"/>
+      <c r="T264" s="30"/>
+      <c r="Z264" s="4"/>
+      <c r="AA264" s="4"/>
+      <c r="AB264" s="4"/>
+    </row>
+    <row r="265" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="4"/>
+      <c r="O265" s="4"/>
+      <c r="P265" s="4"/>
+      <c r="S265" s="30"/>
+      <c r="T265" s="30"/>
+      <c r="U265" s="30"/>
+      <c r="Z265" s="4"/>
+      <c r="AA265" s="4"/>
+      <c r="AB265" s="4"/>
+    </row>
+    <row r="266" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="4"/>
+      <c r="O266" s="4"/>
+      <c r="P266" s="4"/>
+      <c r="T266" s="30"/>
+      <c r="U266" s="30"/>
+      <c r="V266" s="30"/>
+      <c r="Z266" s="4"/>
+      <c r="AA266" s="4"/>
+      <c r="AB266" s="4"/>
+    </row>
+    <row r="267" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
+      <c r="U267" s="30"/>
+      <c r="V267" s="30"/>
+      <c r="W267" s="30"/>
+      <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
+      <c r="AB267" s="4"/>
+    </row>
+    <row r="268" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4"/>
+      <c r="N268" s="4"/>
+      <c r="O268" s="4"/>
+      <c r="P268" s="4"/>
+      <c r="V268" s="30"/>
+      <c r="W268" s="30"/>
+      <c r="X268" s="30"/>
+      <c r="Z268" s="4"/>
+      <c r="AA268" s="4"/>
+      <c r="AB268" s="4"/>
+    </row>
+    <row r="269" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="4"/>
+      <c r="O269" s="4"/>
+      <c r="P269" s="4"/>
+      <c r="W269" s="30"/>
+      <c r="X269" s="30"/>
+      <c r="Y269" s="30"/>
+      <c r="Z269" s="4"/>
+      <c r="AA269" s="4"/>
+      <c r="AB269" s="4"/>
+    </row>
+    <row r="270" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+      <c r="M270" s="4"/>
+      <c r="N270" s="4"/>
+      <c r="O270" s="4"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="4"/>
+      <c r="U270" s="4"/>
+      <c r="V270" s="4"/>
+      <c r="W270" s="4"/>
+      <c r="X270" s="4"/>
+      <c r="Y270" s="4"/>
+      <c r="Z270" s="4"/>
+      <c r="AA270" s="4"/>
+      <c r="AB270" s="4"/>
+    </row>
+    <row r="271" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="4"/>
+      <c r="O271" s="4"/>
+      <c r="P271" s="4"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="4"/>
+      <c r="V271" s="4"/>
+      <c r="W271" s="4"/>
+      <c r="X271" s="4"/>
+      <c r="Y271" s="4"/>
+      <c r="Z271" s="4"/>
+      <c r="AA271" s="4"/>
+      <c r="AB271" s="4"/>
+    </row>
+    <row r="272" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="4"/>
+      <c r="O272" s="4"/>
+      <c r="P272" s="4"/>
+      <c r="Q272" s="4"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="4"/>
+      <c r="W272" s="4"/>
+      <c r="X272" s="4"/>
+      <c r="Y272" s="4"/>
+      <c r="Z272" s="4"/>
+      <c r="AA272" s="4"/>
+      <c r="AB272" s="4"/>
+    </row>
+    <row r="273" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4"/>
+      <c r="N273" s="4"/>
+      <c r="O273" s="4"/>
+      <c r="P273" s="4"/>
+      <c r="Q273" s="4"/>
+      <c r="R273" s="4"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+      <c r="W273" s="4"/>
+      <c r="X273" s="4"/>
+      <c r="Y273" s="4"/>
+      <c r="Z273" s="4"/>
+      <c r="AA273" s="4"/>
+      <c r="AB273" s="4"/>
+    </row>
+    <row r="274" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="P274" s="4"/>
+      <c r="Q274" s="4"/>
+      <c r="R274" s="4"/>
+      <c r="S274" s="4"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+      <c r="W274" s="1"/>
+      <c r="X274" s="4"/>
+      <c r="Y274" s="4"/>
+      <c r="Z274" s="4"/>
+    </row>
+    <row r="275" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
+      <c r="W275" s="1"/>
+      <c r="X275" s="1"/>
+    </row>
+    <row r="276" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="V276" s="1"/>
+      <c r="W276" s="1"/>
+      <c r="X276" s="1"/>
+      <c r="Y276" s="1"/>
+    </row>
+    <row r="277" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="W277" s="1"/>
+      <c r="X277" s="1"/>
+      <c r="Y277" s="1"/>
+      <c r="Z277" s="1"/>
+    </row>
+    <row r="280" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AC280" s="30"/>
+      <c r="AD280" s="2"/>
+      <c r="AE280" s="2"/>
+      <c r="AF280" s="2"/>
+      <c r="AG280" s="2"/>
+    </row>
+    <row r="281" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AD281" s="30"/>
+      <c r="AE281" s="2"/>
+      <c r="AF281" s="2"/>
+      <c r="AG281" s="2"/>
+      <c r="AH281" s="2"/>
+    </row>
+    <row r="282" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AE282" s="1"/>
+      <c r="AF282" s="1"/>
+      <c r="AG282" s="1"/>
+    </row>
+    <row r="283" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AE283" s="30"/>
+      <c r="AF283" s="2"/>
+      <c r="AG283" s="2"/>
+      <c r="AH283" s="2"/>
+      <c r="AI283" s="2"/>
+    </row>
+    <row r="284" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="Y284" s="3"/>
+      <c r="Z284" s="3"/>
+      <c r="AA284" s="3"/>
+      <c r="AB284" s="3"/>
+      <c r="AC284" s="3"/>
+      <c r="AD284" s="3"/>
+      <c r="AE284" s="3"/>
+    </row>
+    <row r="285" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="Z285" s="3"/>
+      <c r="AA285" s="3"/>
+      <c r="AB285" s="3"/>
+      <c r="AC285" s="3"/>
+      <c r="AD285" s="3"/>
+      <c r="AE285" s="3"/>
+      <c r="AF285" s="3"/>
+    </row>
+    <row r="286" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AA286" s="3"/>
+      <c r="AB286" s="3"/>
+      <c r="AC286" s="3"/>
+      <c r="AD286" s="3"/>
+      <c r="AE286" s="3"/>
+      <c r="AF286" s="3"/>
+      <c r="AG286" s="3"/>
+    </row>
+    <row r="287" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
+      <c r="AD287" s="3"/>
+      <c r="AE287" s="3"/>
+      <c r="AF287" s="3"/>
+      <c r="AG287" s="3"/>
+      <c r="AH287" s="3"/>
+    </row>
+    <row r="288" spans="11:35" x14ac:dyDescent="0.25">
+      <c r="AC288" s="3"/>
+      <c r="AD288" s="3"/>
+      <c r="AE288" s="3"/>
+      <c r="AF288" s="3"/>
+      <c r="AG288" s="3"/>
+      <c r="AH288" s="3"/>
+      <c r="AI288" s="3"/>
+    </row>
+    <row r="289" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD289" s="3"/>
+      <c r="AE289" s="3"/>
+      <c r="AF289" s="3"/>
+      <c r="AG289" s="3"/>
+      <c r="AH289" s="3"/>
+      <c r="AI289" s="3"/>
+      <c r="AJ289" s="3"/>
+    </row>
+    <row r="290" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AE290" s="3"/>
+      <c r="AF290" s="3"/>
+      <c r="AG290" s="3"/>
+      <c r="AH290" s="3"/>
+      <c r="AI290" s="3"/>
+      <c r="AJ290" s="3"/>
+      <c r="AK290" s="3"/>
+    </row>
+    <row r="291" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AF291" s="3"/>
+      <c r="AG291" s="3"/>
+      <c r="AH291" s="3"/>
+      <c r="AI291" s="3"/>
+      <c r="AJ291" s="3"/>
+      <c r="AK291" s="3"/>
+      <c r="AL291" s="3"/>
+    </row>
+    <row r="292" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AG292" s="3"/>
+      <c r="AH292" s="3"/>
+      <c r="AI292" s="3"/>
+      <c r="AJ292" s="3"/>
+      <c r="AK292" s="3"/>
+      <c r="AL292" s="3"/>
+      <c r="AM292" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/code/exemplo.xlsx
+++ b/code/exemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-version\jssp\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jssp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733A37C-96BE-49D8-8D51-2D59AC650E2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD59B7B-5CD4-4DFD-93E8-AB7C03242AE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{07FD2462-AA0A-43E4-858C-41630EA873DA}"/>
   </bookViews>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -275,12 +281,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,13 +623,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA72EC1-36D7-4AFA-BD85-A1EE22D9C081}">
-  <dimension ref="A1:AP292"/>
+  <dimension ref="A1:AP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16770" ySplit="600" topLeftCell="AQ274" activePane="bottomLeft"/>
-      <selection activeCell="AP1" sqref="AP1"/>
+      <pane xSplit="16770" ySplit="600" topLeftCell="AQ219" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1:AP1048576"/>
-      <selection pane="bottomLeft" activeCell="AE290" sqref="AE280:AK290"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192:N199"/>
       <selection pane="bottomRight" activeCell="AN210" sqref="AN210"/>
     </sheetView>
   </sheetViews>
@@ -2983,7 +3016,7 @@
       <c r="AA272" s="4"/>
       <c r="AB272" s="4"/>
     </row>
-    <row r="273" spans="11:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
       <c r="M273" s="4"/>
@@ -3003,7 +3036,7 @@
       <c r="AA273" s="4"/>
       <c r="AB273" s="4"/>
     </row>
-    <row r="274" spans="11:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
       <c r="P274" s="4"/>
       <c r="Q274" s="4"/>
       <c r="R274" s="4"/>
@@ -3016,130 +3049,1189 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" spans="11:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
       <c r="U275" s="1"/>
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="11:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="11:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="280" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AC280" s="30"/>
-      <c r="AD280" s="2"/>
-      <c r="AE280" s="2"/>
-      <c r="AF280" s="2"/>
-      <c r="AG280" s="2"/>
-    </row>
-    <row r="281" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AD281" s="30"/>
-      <c r="AE281" s="2"/>
-      <c r="AF281" s="2"/>
-      <c r="AG281" s="2"/>
-      <c r="AH281" s="2"/>
-    </row>
-    <row r="282" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AE282" s="1"/>
-      <c r="AF282" s="1"/>
-      <c r="AG282" s="1"/>
-    </row>
-    <row r="283" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AE283" s="30"/>
-      <c r="AF283" s="2"/>
-      <c r="AG283" s="2"/>
-      <c r="AH283" s="2"/>
-      <c r="AI283" s="2"/>
-    </row>
-    <row r="284" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="Y284" s="3"/>
-      <c r="Z284" s="3"/>
-      <c r="AA284" s="3"/>
-      <c r="AB284" s="3"/>
-      <c r="AC284" s="3"/>
-      <c r="AD284" s="3"/>
-      <c r="AE284" s="3"/>
-    </row>
-    <row r="285" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="Z285" s="3"/>
-      <c r="AA285" s="3"/>
-      <c r="AB285" s="3"/>
-      <c r="AC285" s="3"/>
-      <c r="AD285" s="3"/>
-      <c r="AE285" s="3"/>
-      <c r="AF285" s="3"/>
-    </row>
-    <row r="286" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AA286" s="3"/>
-      <c r="AB286" s="3"/>
-      <c r="AC286" s="3"/>
-      <c r="AD286" s="3"/>
-      <c r="AE286" s="3"/>
-      <c r="AF286" s="3"/>
-      <c r="AG286" s="3"/>
-    </row>
-    <row r="287" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AB287" s="3"/>
-      <c r="AC287" s="3"/>
-      <c r="AD287" s="3"/>
-      <c r="AE287" s="3"/>
-      <c r="AF287" s="3"/>
-      <c r="AG287" s="3"/>
-      <c r="AH287" s="3"/>
-    </row>
-    <row r="288" spans="11:35" x14ac:dyDescent="0.25">
-      <c r="AC288" s="3"/>
-      <c r="AD288" s="3"/>
-      <c r="AE288" s="3"/>
-      <c r="AF288" s="3"/>
-      <c r="AG288" s="3"/>
-      <c r="AH288" s="3"/>
-      <c r="AI288" s="3"/>
-    </row>
-    <row r="289" spans="30:39" x14ac:dyDescent="0.25">
-      <c r="AD289" s="3"/>
-      <c r="AE289" s="3"/>
-      <c r="AF289" s="3"/>
-      <c r="AG289" s="3"/>
-      <c r="AH289" s="3"/>
-      <c r="AI289" s="3"/>
-      <c r="AJ289" s="3"/>
-    </row>
-    <row r="290" spans="30:39" x14ac:dyDescent="0.25">
-      <c r="AE290" s="3"/>
-      <c r="AF290" s="3"/>
-      <c r="AG290" s="3"/>
-      <c r="AH290" s="3"/>
-      <c r="AI290" s="3"/>
-      <c r="AJ290" s="3"/>
-      <c r="AK290" s="3"/>
-    </row>
-    <row r="291" spans="30:39" x14ac:dyDescent="0.25">
-      <c r="AF291" s="3"/>
-      <c r="AG291" s="3"/>
-      <c r="AH291" s="3"/>
-      <c r="AI291" s="3"/>
-      <c r="AJ291" s="3"/>
-      <c r="AK291" s="3"/>
-      <c r="AL291" s="3"/>
-    </row>
-    <row r="292" spans="30:39" x14ac:dyDescent="0.25">
-      <c r="AG292" s="3"/>
-      <c r="AH292" s="3"/>
-      <c r="AI292" s="3"/>
-      <c r="AJ292" s="3"/>
-      <c r="AK292" s="3"/>
-      <c r="AL292" s="3"/>
-      <c r="AM292" s="3"/>
+    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A279" s="32"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="32"/>
+      <c r="G279" s="32"/>
+      <c r="H279" s="32"/>
+      <c r="I279" s="32"/>
+      <c r="J279" s="32"/>
+      <c r="K279" s="32"/>
+      <c r="L279" s="32"/>
+      <c r="M279" s="32"/>
+      <c r="N279" s="32"/>
+      <c r="O279" s="32"/>
+      <c r="P279" s="32"/>
+      <c r="Q279" s="32"/>
+      <c r="R279" s="32"/>
+      <c r="S279" s="32"/>
+      <c r="T279" s="32"/>
+      <c r="U279" s="32"/>
+      <c r="V279" s="32"/>
+      <c r="W279" s="32"/>
+      <c r="X279" s="32"/>
+      <c r="Y279" s="32"/>
+      <c r="Z279" s="32"/>
+      <c r="AA279" s="32"/>
+      <c r="AB279" s="32"/>
+      <c r="AC279" s="32"/>
+      <c r="AD279" s="32"/>
+      <c r="AE279" s="32"/>
+      <c r="AF279" s="32"/>
+      <c r="AG279" s="32"/>
+      <c r="AH279" s="32"/>
+      <c r="AI279" s="32"/>
+      <c r="AJ279" s="32"/>
+      <c r="AK279" s="32"/>
+      <c r="AL279" s="32"/>
+      <c r="AM279" s="32"/>
+      <c r="AN279" s="32"/>
+      <c r="AO279" s="32"/>
+      <c r="AP279" s="32"/>
+    </row>
+    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+      <c r="X280" s="4"/>
+      <c r="Y280" s="4"/>
+      <c r="Z280" s="4"/>
+      <c r="AA280" s="4"/>
+      <c r="AB280" s="4"/>
+      <c r="AC280" s="31"/>
+      <c r="AD280" s="4"/>
+      <c r="AE280" s="4"/>
+      <c r="AF280" s="4"/>
+      <c r="AG280" s="4"/>
+      <c r="AH280" s="4"/>
+      <c r="AI280" s="4"/>
+      <c r="AJ280" s="4"/>
+      <c r="AK280" s="4"/>
+      <c r="AL280" s="4"/>
+      <c r="AM280" s="4"/>
+    </row>
+    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="50"/>
+      <c r="J281" s="50"/>
+      <c r="K281" s="50"/>
+      <c r="L281" s="50"/>
+      <c r="M281" s="50"/>
+      <c r="N281" s="50"/>
+      <c r="O281" s="50"/>
+      <c r="P281" s="50"/>
+      <c r="Q281" s="50"/>
+      <c r="R281" s="50"/>
+      <c r="V281" s="4"/>
+      <c r="W281" s="4"/>
+      <c r="X281" s="4"/>
+      <c r="Y281" s="4"/>
+      <c r="Z281" s="4"/>
+      <c r="AA281" s="4"/>
+      <c r="AB281" s="4"/>
+      <c r="AC281" s="4"/>
+      <c r="AD281" s="31"/>
+      <c r="AE281" s="4"/>
+      <c r="AF281" s="4"/>
+      <c r="AG281" s="4"/>
+      <c r="AH281" s="4"/>
+      <c r="AI281" s="4"/>
+      <c r="AJ281" s="4"/>
+      <c r="AK281" s="4"/>
+      <c r="AL281" s="4"/>
+      <c r="AM281" s="4"/>
+    </row>
+    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="50"/>
+      <c r="M282" s="50"/>
+      <c r="N282" s="50"/>
+      <c r="O282" s="4"/>
+      <c r="P282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+      <c r="X282" s="4"/>
+      <c r="Y282" s="4"/>
+      <c r="Z282" s="4"/>
+      <c r="AA282" s="4"/>
+      <c r="AB282" s="4"/>
+      <c r="AC282" s="4"/>
+      <c r="AD282" s="4"/>
+      <c r="AE282" s="4"/>
+      <c r="AF282" s="4"/>
+      <c r="AG282" s="4"/>
+      <c r="AH282" s="4"/>
+      <c r="AI282" s="4"/>
+      <c r="AJ282" s="4"/>
+      <c r="AK282" s="4"/>
+      <c r="AL282" s="4"/>
+      <c r="AM282" s="4"/>
+    </row>
+    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="50"/>
+      <c r="L283" s="50"/>
+      <c r="M283" s="50"/>
+      <c r="N283" s="50"/>
+      <c r="O283" s="50"/>
+      <c r="P283" s="50"/>
+      <c r="Q283" s="50"/>
+      <c r="R283" s="50"/>
+      <c r="V283" s="4"/>
+      <c r="W283" s="4"/>
+      <c r="X283" s="4"/>
+      <c r="Y283" s="4"/>
+      <c r="Z283" s="4"/>
+      <c r="AA283" s="4"/>
+      <c r="AB283" s="4"/>
+      <c r="AC283" s="4"/>
+      <c r="AD283" s="4"/>
+      <c r="AE283" s="31"/>
+      <c r="AF283" s="4"/>
+      <c r="AG283" s="4"/>
+      <c r="AH283" s="4"/>
+      <c r="AI283" s="4"/>
+      <c r="AJ283" s="4"/>
+      <c r="AK283" s="4"/>
+      <c r="AL283" s="4"/>
+      <c r="AM283" s="4"/>
+    </row>
+    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="50"/>
+      <c r="K284" s="50"/>
+      <c r="L284" s="50"/>
+      <c r="M284" s="50"/>
+      <c r="N284" s="50"/>
+      <c r="O284" s="50"/>
+      <c r="P284" s="50"/>
+      <c r="Q284" s="50"/>
+      <c r="R284" s="50"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+      <c r="X284" s="4"/>
+      <c r="Y284" s="4"/>
+      <c r="Z284" s="4"/>
+      <c r="AA284" s="4"/>
+      <c r="AB284" s="4"/>
+      <c r="AC284" s="4"/>
+      <c r="AD284" s="4"/>
+      <c r="AE284" s="4"/>
+      <c r="AF284" s="4"/>
+      <c r="AG284" s="4"/>
+      <c r="AH284" s="4"/>
+      <c r="AI284" s="4"/>
+      <c r="AJ284" s="4"/>
+      <c r="AK284" s="4"/>
+      <c r="AL284" s="4"/>
+      <c r="AM284" s="4"/>
+    </row>
+    <row r="285" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="50"/>
+      <c r="J285" s="50"/>
+      <c r="K285" s="50"/>
+      <c r="L285" s="50"/>
+      <c r="M285" s="50"/>
+      <c r="N285" s="50"/>
+      <c r="O285" s="50"/>
+      <c r="P285" s="50"/>
+      <c r="Q285" s="50"/>
+      <c r="R285" s="50"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+      <c r="X285">
+        <v>13</v>
+      </c>
+      <c r="Y285">
+        <v>14</v>
+      </c>
+      <c r="Z285">
+        <v>15</v>
+      </c>
+      <c r="AA285">
+        <v>16</v>
+      </c>
+      <c r="AB285">
+        <v>17</v>
+      </c>
+      <c r="AC285" s="4"/>
+      <c r="AD285" s="4"/>
+      <c r="AE285" s="4"/>
+      <c r="AF285" s="4"/>
+      <c r="AG285" s="4"/>
+      <c r="AH285" s="4"/>
+      <c r="AI285" s="4"/>
+      <c r="AJ285" s="4"/>
+      <c r="AK285" s="4"/>
+      <c r="AL285" s="4"/>
+      <c r="AM285" s="4"/>
+    </row>
+    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="50"/>
+      <c r="L286" s="50"/>
+      <c r="M286" s="50"/>
+      <c r="N286" s="50"/>
+      <c r="O286" s="50"/>
+      <c r="P286" s="34"/>
+      <c r="Q286" s="42"/>
+      <c r="R286" s="42"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+      <c r="X286" s="50"/>
+      <c r="Y286" s="50"/>
+      <c r="Z286" s="34"/>
+      <c r="AA286" s="42"/>
+      <c r="AB286" s="42"/>
+      <c r="AC286" s="4"/>
+      <c r="AD286" s="4"/>
+      <c r="AE286" s="4"/>
+      <c r="AF286" s="4"/>
+      <c r="AG286" s="4"/>
+      <c r="AH286" s="4"/>
+      <c r="AI286" s="4"/>
+      <c r="AJ286" s="4"/>
+      <c r="AK286" s="4"/>
+      <c r="AL286" s="4"/>
+      <c r="AM286" s="4"/>
+    </row>
+    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+      <c r="I287" s="50"/>
+      <c r="J287" s="50"/>
+      <c r="K287" s="50"/>
+      <c r="L287" s="50"/>
+      <c r="M287" s="50"/>
+      <c r="N287" s="50"/>
+      <c r="O287" s="41"/>
+      <c r="P287" s="35"/>
+      <c r="Q287" s="41"/>
+      <c r="R287" s="50"/>
+      <c r="V287" s="4"/>
+      <c r="W287" s="4"/>
+      <c r="X287" s="50"/>
+      <c r="Y287" s="41"/>
+      <c r="Z287" s="35"/>
+      <c r="AA287" s="41"/>
+      <c r="AB287" s="50"/>
+      <c r="AC287" s="4"/>
+      <c r="AD287" s="4"/>
+      <c r="AE287" s="4"/>
+      <c r="AF287" s="4"/>
+      <c r="AG287" s="4"/>
+      <c r="AH287" s="4"/>
+      <c r="AI287" s="4"/>
+      <c r="AJ287" s="4"/>
+      <c r="AK287" s="4"/>
+      <c r="AL287" s="4"/>
+      <c r="AM287" s="4"/>
+    </row>
+    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+      <c r="I288" s="50"/>
+      <c r="J288" s="50"/>
+      <c r="K288" s="50"/>
+      <c r="L288" s="50"/>
+      <c r="M288" s="50"/>
+      <c r="N288" s="41"/>
+      <c r="O288" s="41"/>
+      <c r="P288" s="35"/>
+      <c r="Q288" s="50"/>
+      <c r="R288" s="50"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+      <c r="X288" s="41"/>
+      <c r="Y288" s="41"/>
+      <c r="Z288" s="35"/>
+      <c r="AA288" s="50"/>
+      <c r="AB288" s="50"/>
+      <c r="AC288" s="4"/>
+      <c r="AD288" s="4"/>
+      <c r="AE288" s="4"/>
+      <c r="AF288" s="4"/>
+      <c r="AG288" s="4"/>
+      <c r="AH288" s="4"/>
+      <c r="AI288" s="4"/>
+      <c r="AJ288" s="4"/>
+      <c r="AK288" s="4"/>
+      <c r="AL288" s="4"/>
+      <c r="AM288" s="4"/>
+    </row>
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+      <c r="I289" s="50"/>
+      <c r="J289" s="4"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="50"/>
+      <c r="M289" s="50"/>
+      <c r="N289" s="50"/>
+      <c r="O289" s="50"/>
+      <c r="P289" s="26"/>
+      <c r="Q289" s="50"/>
+      <c r="R289" s="50"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+      <c r="X289" s="50"/>
+      <c r="Y289" s="50"/>
+      <c r="Z289" s="26"/>
+      <c r="AA289" s="50"/>
+      <c r="AB289" s="50"/>
+      <c r="AC289" s="4"/>
+      <c r="AD289" s="4"/>
+      <c r="AE289" s="4"/>
+      <c r="AF289" s="4"/>
+      <c r="AG289" s="4"/>
+      <c r="AH289" s="4"/>
+      <c r="AI289" s="4"/>
+      <c r="AJ289" s="4"/>
+      <c r="AK289" s="4"/>
+      <c r="AL289" s="4"/>
+      <c r="AM289" s="4"/>
+    </row>
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
+      <c r="I290" s="4"/>
+      <c r="J290" s="4"/>
+      <c r="K290" s="50"/>
+      <c r="L290" s="50"/>
+      <c r="M290" s="50"/>
+      <c r="N290" s="50"/>
+      <c r="O290" s="43"/>
+      <c r="P290" s="36"/>
+      <c r="Q290" s="50"/>
+      <c r="R290" s="50"/>
+      <c r="V290" s="4"/>
+      <c r="W290" s="4"/>
+      <c r="X290" s="50"/>
+      <c r="Y290" s="43"/>
+      <c r="Z290" s="36"/>
+      <c r="AA290" s="50"/>
+      <c r="AB290" s="50"/>
+      <c r="AC290" s="4"/>
+      <c r="AD290" s="4"/>
+      <c r="AE290" s="4"/>
+      <c r="AF290" s="4"/>
+      <c r="AG290" s="4"/>
+      <c r="AH290" s="4"/>
+      <c r="AI290" s="4"/>
+      <c r="AJ290" s="4"/>
+      <c r="AK290" s="4"/>
+      <c r="AL290" s="4"/>
+      <c r="AM290" s="4"/>
+    </row>
+    <row r="291" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="50"/>
+      <c r="K291" s="50"/>
+      <c r="L291" s="50"/>
+      <c r="M291" s="50"/>
+      <c r="N291" s="50"/>
+      <c r="O291" s="50"/>
+      <c r="P291" s="37"/>
+      <c r="Q291" s="43"/>
+      <c r="R291" s="50"/>
+      <c r="V291" s="4"/>
+      <c r="W291" s="4"/>
+      <c r="X291" s="50"/>
+      <c r="Y291" s="50"/>
+      <c r="Z291" s="37"/>
+      <c r="AA291" s="43"/>
+      <c r="AB291" s="50"/>
+      <c r="AC291" s="4"/>
+      <c r="AD291" s="4"/>
+      <c r="AE291" s="4"/>
+      <c r="AF291" s="4"/>
+      <c r="AG291" s="4"/>
+      <c r="AH291" s="4"/>
+      <c r="AI291" s="4"/>
+      <c r="AJ291" s="4"/>
+      <c r="AK291" s="4"/>
+      <c r="AL291" s="4"/>
+      <c r="AM291" s="4"/>
+    </row>
+    <row r="292" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+      <c r="I292" s="50"/>
+      <c r="J292" s="50"/>
+      <c r="K292" s="50"/>
+      <c r="L292" s="50"/>
+      <c r="M292" s="50"/>
+      <c r="N292" s="50"/>
+      <c r="O292" s="50"/>
+      <c r="P292" s="50"/>
+      <c r="Q292" s="50"/>
+      <c r="R292" s="50"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+      <c r="X292">
+        <v>13</v>
+      </c>
+      <c r="Y292">
+        <v>14</v>
+      </c>
+      <c r="Z292">
+        <v>15</v>
+      </c>
+      <c r="AA292">
+        <v>16</v>
+      </c>
+      <c r="AB292">
+        <v>17</v>
+      </c>
+      <c r="AC292">
+        <v>18</v>
+      </c>
+      <c r="AD292" s="4"/>
+      <c r="AE292" s="4"/>
+      <c r="AF292" s="4"/>
+      <c r="AG292" s="4"/>
+      <c r="AH292" s="4"/>
+      <c r="AI292" s="4"/>
+      <c r="AJ292" s="4"/>
+      <c r="AK292" s="4"/>
+      <c r="AL292" s="4"/>
+      <c r="AM292" s="4"/>
+    </row>
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
+      <c r="H293" s="50"/>
+      <c r="I293" s="50"/>
+      <c r="J293" s="50"/>
+      <c r="K293" s="50"/>
+      <c r="L293" s="50"/>
+      <c r="M293" s="50"/>
+      <c r="N293" s="50"/>
+      <c r="O293" s="50"/>
+      <c r="P293" s="46"/>
+      <c r="Q293" s="38"/>
+      <c r="R293" s="41"/>
+      <c r="S293" s="41"/>
+      <c r="X293" s="50"/>
+      <c r="Y293" s="50"/>
+      <c r="Z293" s="46"/>
+      <c r="AA293" s="38"/>
+      <c r="AB293" s="41"/>
+      <c r="AC293" s="41"/>
+    </row>
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="50"/>
+      <c r="K294" s="50"/>
+      <c r="L294" s="50"/>
+      <c r="M294" s="50"/>
+      <c r="N294" s="50"/>
+      <c r="O294" s="50"/>
+      <c r="P294" s="44"/>
+      <c r="Q294" s="39"/>
+      <c r="R294" s="42"/>
+      <c r="X294" s="50"/>
+      <c r="Y294" s="50"/>
+      <c r="Z294" s="44"/>
+      <c r="AA294" s="39"/>
+      <c r="AB294" s="42"/>
+    </row>
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="50"/>
+      <c r="L295" s="50"/>
+      <c r="M295" s="50"/>
+      <c r="N295" s="50"/>
+      <c r="O295" s="41"/>
+      <c r="P295" s="45"/>
+      <c r="Q295" s="40"/>
+      <c r="R295" s="50"/>
+      <c r="X295" s="50"/>
+      <c r="Y295" s="41"/>
+      <c r="Z295" s="45"/>
+      <c r="AA295" s="40"/>
+      <c r="AB295" s="50"/>
+    </row>
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+      <c r="I296" s="50"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="50"/>
+      <c r="L296" s="50"/>
+      <c r="M296" s="50"/>
+      <c r="N296" s="41"/>
+      <c r="O296" s="41"/>
+      <c r="P296" s="45"/>
+      <c r="Q296" s="48"/>
+      <c r="R296" s="50"/>
+      <c r="X296" s="41"/>
+      <c r="Y296" s="41"/>
+      <c r="Z296" s="45"/>
+      <c r="AA296" s="48"/>
+      <c r="AB296" s="50"/>
+    </row>
+    <row r="297" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="50"/>
+      <c r="J297" s="50"/>
+      <c r="K297" s="50"/>
+      <c r="L297" s="50"/>
+      <c r="M297" s="50"/>
+      <c r="N297" s="50"/>
+      <c r="O297" s="50"/>
+      <c r="P297" s="19"/>
+      <c r="Q297" s="21"/>
+      <c r="R297" s="50"/>
+      <c r="X297" s="50"/>
+      <c r="Y297" s="50"/>
+      <c r="Z297" s="19"/>
+      <c r="AA297" s="21"/>
+      <c r="AB297" s="50"/>
+    </row>
+    <row r="298" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+      <c r="I298" s="50"/>
+      <c r="J298" s="50"/>
+      <c r="K298" s="50"/>
+      <c r="L298" s="50"/>
+      <c r="M298" s="50"/>
+      <c r="N298" s="50"/>
+      <c r="O298" s="50"/>
+      <c r="P298" s="50"/>
+      <c r="Q298" s="50"/>
+      <c r="R298" s="50"/>
+    </row>
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+      <c r="I299" s="4"/>
+      <c r="J299" s="50"/>
+      <c r="K299" s="50"/>
+      <c r="L299" s="50"/>
+      <c r="M299" s="50"/>
+      <c r="N299" s="50"/>
+      <c r="O299" s="50"/>
+      <c r="P299" s="46"/>
+      <c r="Q299" s="52"/>
+      <c r="R299" s="38"/>
+      <c r="S299" s="41"/>
+      <c r="T299" s="41"/>
+    </row>
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="50"/>
+      <c r="L300" s="50"/>
+      <c r="M300" s="50"/>
+      <c r="N300" s="50"/>
+      <c r="O300" s="50"/>
+      <c r="P300" s="47"/>
+      <c r="Q300" s="41"/>
+      <c r="R300" s="40"/>
+      <c r="S300" s="41"/>
+    </row>
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
+      <c r="I301" s="50"/>
+      <c r="J301" s="4"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="50"/>
+      <c r="M301" s="50"/>
+      <c r="N301" s="50"/>
+      <c r="O301" s="50"/>
+      <c r="P301" s="44"/>
+      <c r="Q301" s="42"/>
+      <c r="R301" s="39"/>
+    </row>
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+      <c r="I302" s="50"/>
+      <c r="J302" s="50"/>
+      <c r="K302" s="50"/>
+      <c r="L302" s="50"/>
+      <c r="M302" s="50"/>
+      <c r="N302" s="50"/>
+      <c r="O302" s="41"/>
+      <c r="P302" s="45"/>
+      <c r="Q302" s="41"/>
+      <c r="R302" s="48"/>
+    </row>
+    <row r="303" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+      <c r="I303" s="50"/>
+      <c r="J303" s="50"/>
+      <c r="K303" s="50"/>
+      <c r="L303" s="50"/>
+      <c r="M303" s="50"/>
+      <c r="N303" s="41"/>
+      <c r="O303" s="41"/>
+      <c r="P303" s="53"/>
+      <c r="Q303" s="51"/>
+      <c r="R303" s="49"/>
+    </row>
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+      <c r="I304" s="50"/>
+      <c r="J304" s="50"/>
+      <c r="K304" s="50"/>
+      <c r="L304" s="50"/>
+      <c r="M304" s="50"/>
+      <c r="N304" s="50"/>
+      <c r="O304" s="50"/>
+      <c r="P304" s="50"/>
+      <c r="Q304" s="50"/>
+      <c r="R304" s="50"/>
+    </row>
+    <row r="305" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+      <c r="I305" s="50"/>
+      <c r="J305" s="50"/>
+      <c r="K305" s="50"/>
+      <c r="L305" s="50"/>
+      <c r="M305" s="50"/>
+      <c r="Z305">
+        <v>15</v>
+      </c>
+      <c r="AA305">
+        <v>16</v>
+      </c>
+      <c r="AB305">
+        <v>17</v>
+      </c>
+      <c r="AC305" s="50"/>
+      <c r="AD305" s="50"/>
+      <c r="AE305" s="50"/>
+      <c r="AF305" s="50"/>
+      <c r="AG305" s="50"/>
+    </row>
+    <row r="306" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="50"/>
+      <c r="K306" s="50"/>
+      <c r="L306" s="50"/>
+      <c r="M306" s="50"/>
+      <c r="P306" s="3"/>
+      <c r="Z306" s="3"/>
+      <c r="AC306" s="50"/>
+      <c r="AD306" s="50"/>
+      <c r="AE306" s="50"/>
+      <c r="AF306" s="50"/>
+      <c r="AG306" s="50"/>
+    </row>
+    <row r="307" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+      <c r="K307" s="50"/>
+      <c r="L307" s="50"/>
+      <c r="M307" s="50"/>
+      <c r="P307" s="33"/>
+      <c r="Q307" s="33"/>
+      <c r="R307" s="33"/>
+      <c r="Z307" s="33"/>
+      <c r="AA307" s="33"/>
+      <c r="AB307" s="33"/>
+      <c r="AC307" s="50"/>
+      <c r="AD307" s="50"/>
+      <c r="AE307" s="50"/>
+      <c r="AF307" s="50"/>
+      <c r="AG307" s="50"/>
+    </row>
+    <row r="308" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+      <c r="I308" s="50"/>
+      <c r="J308" s="4"/>
+      <c r="K308" s="4"/>
+      <c r="L308" s="50"/>
+      <c r="M308" s="50"/>
+      <c r="Q308" s="3"/>
+      <c r="AA308" s="3"/>
+      <c r="AC308" s="50"/>
+      <c r="AD308" s="50"/>
+      <c r="AE308" s="50"/>
+      <c r="AF308" s="50"/>
+      <c r="AG308" s="50"/>
+    </row>
+    <row r="309" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="50"/>
+      <c r="J309" s="50"/>
+      <c r="K309" s="50"/>
+      <c r="L309" s="50"/>
+      <c r="M309" s="50"/>
+      <c r="R309" s="3"/>
+      <c r="AB309" s="3"/>
+      <c r="AC309" s="50"/>
+      <c r="AD309" s="50"/>
+      <c r="AE309" s="50"/>
+      <c r="AF309" s="50"/>
+      <c r="AG309" s="50"/>
+    </row>
+    <row r="310" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="50"/>
+      <c r="K310" s="50"/>
+      <c r="L310" s="50"/>
+      <c r="M310" s="50"/>
+      <c r="AA310" s="50"/>
+      <c r="AB310" s="50"/>
+      <c r="AC310" s="50"/>
+      <c r="AD310" s="50"/>
+      <c r="AE310" s="50"/>
+      <c r="AF310" s="50"/>
+      <c r="AG310" s="50"/>
+    </row>
+    <row r="311" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+      <c r="K311" s="50"/>
+      <c r="L311" s="50"/>
+      <c r="M311" s="50"/>
+      <c r="Z311">
+        <v>14</v>
+      </c>
+      <c r="AA311">
+        <v>15</v>
+      </c>
+      <c r="AB311">
+        <v>16</v>
+      </c>
+      <c r="AC311">
+        <v>17</v>
+      </c>
+      <c r="AD311">
+        <v>18</v>
+      </c>
+      <c r="AE311" s="50"/>
+      <c r="AF311" s="50"/>
+      <c r="AG311" s="50"/>
+    </row>
+    <row r="312" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
+      <c r="H312" s="4"/>
+      <c r="I312" s="50"/>
+      <c r="J312" s="4"/>
+      <c r="K312" s="4"/>
+      <c r="L312" s="50"/>
+      <c r="M312" s="50"/>
+      <c r="O312" s="2"/>
+      <c r="P312" s="2"/>
+      <c r="Z312" s="2"/>
+      <c r="AA312" s="2"/>
+      <c r="AE312" s="50"/>
+      <c r="AF312" s="50"/>
+      <c r="AG312" s="50"/>
+    </row>
+    <row r="313" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="P313" s="33"/>
+      <c r="Q313" s="33"/>
+      <c r="R313" s="33"/>
+      <c r="AA313" s="33"/>
+      <c r="AB313" s="33"/>
+      <c r="AC313" s="33"/>
+      <c r="AE313" s="50"/>
+      <c r="AF313" s="50"/>
+    </row>
+    <row r="314" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="P314" s="2"/>
+      <c r="Q314" s="2"/>
+      <c r="AA314" s="2"/>
+      <c r="AB314" s="2"/>
+      <c r="AE314" s="4"/>
+      <c r="AF314" s="4"/>
+      <c r="AG314" s="4"/>
+    </row>
+    <row r="315" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="Q315" s="2"/>
+      <c r="R315" s="2"/>
+      <c r="AB315" s="2"/>
+      <c r="AC315" s="2"/>
+    </row>
+    <row r="316" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="R316" s="2"/>
+      <c r="S316" s="2"/>
+      <c r="AC316" s="2"/>
+      <c r="AD316" s="2"/>
+    </row>
+    <row r="318" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="4"/>
+    </row>
+    <row r="319" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
+      <c r="Q319" s="3"/>
+      <c r="R319" s="3"/>
+      <c r="S319" s="3"/>
+      <c r="T319" s="4"/>
+    </row>
+    <row r="320" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="P320" s="3"/>
+      <c r="Q320" s="3"/>
+      <c r="R320" s="3"/>
+      <c r="S320" s="3"/>
+      <c r="T320" s="3"/>
+      <c r="U320" s="3"/>
+      <c r="V320" s="4"/>
+    </row>
+    <row r="321" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="4"/>
+    </row>
+    <row r="322" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="R322" s="3"/>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3"/>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+      <c r="W322" s="3"/>
+      <c r="X322" s="4"/>
+    </row>
+    <row r="323" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="S323" s="3"/>
+      <c r="T323" s="3"/>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+      <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
+      <c r="Y323" s="4"/>
+    </row>
+    <row r="324" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+      <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
+      <c r="Y324" s="3"/>
+      <c r="Z324" s="4"/>
+    </row>
+    <row r="325" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="V325" s="3"/>
+      <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
+      <c r="Y325" s="3"/>
+      <c r="Z325" s="3"/>
+      <c r="AA325" s="4"/>
+    </row>
+    <row r="326" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
+      <c r="Y326" s="3"/>
+      <c r="Z326" s="3"/>
+      <c r="AA326" s="3"/>
+    </row>
+    <row r="328" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P328" s="1"/>
+      <c r="Q328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
+      <c r="U328" s="1"/>
+      <c r="V328" s="1"/>
+      <c r="W328" s="1"/>
+      <c r="X328" s="1"/>
+      <c r="Y328" s="1"/>
+    </row>
+    <row r="329" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="Q329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
+      <c r="U329" s="1"/>
+      <c r="V329" s="1"/>
+      <c r="W329" s="1"/>
+      <c r="X329" s="1"/>
+      <c r="Y329" s="1"/>
+      <c r="Z329" s="1"/>
+    </row>
+    <row r="330" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="R330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
+      <c r="U330" s="1"/>
+      <c r="V330" s="1"/>
+      <c r="W330" s="1"/>
+      <c r="X330" s="1"/>
+      <c r="Y330" s="1"/>
+      <c r="Z330" s="1"/>
+      <c r="AA330" s="1"/>
+    </row>
+    <row r="331" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="R331" s="2"/>
+      <c r="S331" s="2"/>
+      <c r="T331" s="2"/>
+      <c r="U331" s="2"/>
+      <c r="V331" s="2"/>
+      <c r="W331" s="2"/>
+      <c r="X331" s="2"/>
+      <c r="Y331" s="2"/>
+      <c r="Z331" s="2"/>
+    </row>
+    <row r="332" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="U332" s="4"/>
+    </row>
+    <row r="339" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="AB339" s="4"/>
+    </row>
+    <row r="346" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K346" s="4"/>
+      <c r="L346" s="4"/>
+      <c r="M346" s="4"/>
+      <c r="N346" s="4"/>
+      <c r="O346" s="4"/>
+      <c r="P346" s="4"/>
+      <c r="Q346" s="4"/>
+    </row>
+    <row r="347" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K347" s="4"/>
+      <c r="L347" s="4"/>
+      <c r="M347" s="4"/>
+      <c r="N347" s="4"/>
+      <c r="O347" s="4"/>
+      <c r="P347" s="4"/>
+      <c r="Q347" s="4"/>
+      <c r="S347" s="3"/>
+    </row>
+    <row r="348" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K348" s="4"/>
+      <c r="L348" s="4"/>
+      <c r="M348" s="4"/>
+      <c r="N348" s="2"/>
+      <c r="O348" s="2"/>
+      <c r="P348" s="2"/>
+      <c r="Q348" s="2"/>
+      <c r="R348" s="2"/>
+    </row>
+    <row r="349" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K349" s="4"/>
+      <c r="L349" s="4"/>
+      <c r="M349" s="4"/>
+      <c r="N349" s="4"/>
+      <c r="O349" s="2"/>
+      <c r="P349" s="2"/>
+      <c r="Q349" s="2"/>
+      <c r="R349" s="2"/>
+      <c r="S349" s="2"/>
+    </row>
+    <row r="350" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K350" s="4"/>
+      <c r="L350" s="4"/>
+      <c r="M350" s="4"/>
+      <c r="N350" s="4"/>
+      <c r="O350" s="4"/>
+      <c r="P350" s="2"/>
+      <c r="Q350" s="2"/>
+      <c r="R350" s="2"/>
+      <c r="S350" s="2"/>
+      <c r="T350" s="2"/>
+    </row>
+    <row r="351" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K351" s="4"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="4"/>
+      <c r="N351" s="4"/>
+      <c r="O351" s="4"/>
+      <c r="P351" s="4"/>
+      <c r="Q351" s="2"/>
+      <c r="R351" s="2"/>
+      <c r="S351" s="2"/>
+      <c r="T351" s="2"/>
+      <c r="U351" s="2"/>
+    </row>
+    <row r="352" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K352" s="4"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="4"/>
+      <c r="N352" s="4"/>
+      <c r="O352" s="4"/>
+      <c r="P352" s="4"/>
+      <c r="Q352" s="4"/>
+      <c r="R352" s="2"/>
+      <c r="S352" s="2"/>
+      <c r="T352" s="2"/>
+      <c r="U352" s="2"/>
+      <c r="V352" s="2"/>
+    </row>
+    <row r="353" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="S353" s="2"/>
+      <c r="T353" s="2"/>
+      <c r="U353" s="2"/>
+      <c r="V353" s="2"/>
+      <c r="W353" s="2"/>
+    </row>
+    <row r="354" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+    </row>
+    <row r="355" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
+    </row>
+    <row r="356" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+      <c r="U356" s="1"/>
+    </row>
+    <row r="357" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O357" s="28"/>
+      <c r="P357" s="28"/>
+      <c r="Q357" s="28"/>
+      <c r="R357" s="28"/>
+      <c r="S357" s="28"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+    </row>
+    <row r="358" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P358" s="28"/>
+      <c r="Q358" s="28"/>
+      <c r="R358" s="28"/>
+      <c r="S358" s="28"/>
+      <c r="T358" s="28"/>
+    </row>
+    <row r="359" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="Q359" s="28"/>
+      <c r="R359" s="28"/>
+      <c r="S359" s="28"/>
+      <c r="T359" s="28"/>
+      <c r="U359" s="28"/>
+    </row>
+    <row r="360" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="R360" s="28"/>
+      <c r="S360" s="28"/>
+      <c r="T360" s="28"/>
+      <c r="U360" s="28"/>
+      <c r="V360" s="28"/>
+    </row>
+    <row r="361" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="S361" s="28"/>
+      <c r="T361" s="28"/>
+      <c r="U361" s="28"/>
+      <c r="V361" s="28"/>
+      <c r="W361" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
